--- a/pred_ohlcv/54_21/2020-01-12 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BSV ohlcv.xlsx
@@ -2602,7 +2602,7 @@
         <v>-3606.47597394</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3606.47597394</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3606.47597394</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3623.84967394</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3638.72547394</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3796.52987394</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3796.52987394</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3396.32730935</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3719.16463867</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3495.90302103</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3246.042340219999</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-3231.300040219999</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3250.704040219999</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3253.873440219999</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-3261.027940219999</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-3261.027940219999</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-3197.50844022</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-3210.05524022</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-3221.03784022</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-3517.79284022</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-3221.4314223</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-3353.8547223</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-3369.1277223</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3392.3833223</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3286.16951164</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3252.48651164</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3101.07191164</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-3149.42061164</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-3200.36051164</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-3231.36051164</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-3118.27691164</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-3144.50091164</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3100.17231164</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3100.17231164</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-3191.6362639</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3186.7354639</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-3134.687663900001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-3164.441663900001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-3145.1893639</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-3104.46476723</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-3025.25986723</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-3108.20306723</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-3126.85426723</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-3097.14386723</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-3097.14386723</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-3119.87116723</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-3120.62936723</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-3097.42476723</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2922.89156723</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3013.915667230001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2908.747067230001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2908.48706723</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-2982.760669000001</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-3051.243369000001</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-3033.741269000001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-3034.601269000001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-3005.005369000001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-3005.035369000001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2931.097869000001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-2934.441269000001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-2939.125869000001</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2938.875869000001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-2942.314069000001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2942.054069000001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2931.954069000001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2933.082469000001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-3041.520269000001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-3018.108869000002</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2904.903969000002</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2906.476969000002</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2907.135969000002</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2903.605969000002</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2903.605969000002</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2919.629869000002</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2908.779869000002</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2902.462269000002</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2903.248269000002</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2903.028269000002</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2903.098269000002</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2903.098269000002</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2903.098269000002</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2827.382269000002</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2811.223469000002</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2811.223469000002</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2832.898469000002</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2831.928469000003</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2836.992469000003</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2836.992469000003</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2873.842869000002</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2858.390469000002</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2912.273669000002</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2837.135969000003</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2837.135969000003</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2837.135969000003</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2837.135969000003</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2861.994869000003</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2879.408469000003</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2880.371469000003</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2864.347569000003</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2861.927269000003</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2861.667269000002</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2871.667269000002</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2871.387269000002</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2871.387269000002</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2871.387269000002</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2880.421869000002</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2890.372869000002</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2892.460569000002</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-2841.560469000002</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-2841.560469000002</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2792.055069000002</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3848.447969000003</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3788.670969000003</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3819.844369000003</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-3839.444569000003</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-3717.468269000003</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-3708.042569000002</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3640.571469000002</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3597.185569000002</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1966.698784700001</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1585.073314200001</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1962.599087720001</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1849.031187720001</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2054.836912820001</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1957.074512820001</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-2206.985412820001</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-2592.054870260001</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-2508.580570260001</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-2225.099816730001</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2438.763221560001</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2258.679821560001</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-2140.70219529</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-2105.31169529</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1961.65075514</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1748.48606713</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1428.31017116</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1664.81777116</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1574.47701657</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1254.80301657</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1453.904987930001</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-512.3966886300005</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>4406.63174087</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>4406.63174087</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>4406.63174087</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>4468.287640869999</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>4383.62044087</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>4285.88624087</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>5088.255985409998</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>5704.769885409998</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>6015.374112679998</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>5793.097711929998</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>5879.276711929998</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>5711.698311929998</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>5463.378111929997</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>5296.034711929998</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>5153.976160479998</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>5090.008860479998</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>4912.972059249998</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>4680.612759249998</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>4448.782359249998</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>4618.180759249998</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>5200.038112289999</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BSV ohlcv.xlsx
@@ -2602,7 +2602,7 @@
         <v>-3606.47597394</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3606.47597394</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3606.47597394</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3623.84967394</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3638.72547394</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3796.52987394</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3796.52987394</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3776.53367394</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3462.34440846</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3396.32730935</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3719.16463867</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-3495.90302103</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-3209.40844022</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-3172.05594022</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-3244.99364022</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-3315.90604022</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-3233.80584022</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-3152.78584022</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-3158.73724022</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-3210.02984022</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2859.144869000001</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2859.144869000001</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-2883.784569000001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2883.394569000001</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2903.634569000001</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-2906.049069000001</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3819.844369000003</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-3839.444569000003</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-3708.042569000002</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3640.571469000002</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3597.185569000002</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-3552.319269000001</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-3540.013548020002</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-3540.013548020002</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1966.698784700001</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1585.073314200001</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1962.599087720001</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1849.031187720001</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-2054.836912820001</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1957.074512820001</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-2206.985412820001</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-2592.054870260001</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-2508.580570260001</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-2225.099816730001</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2438.763221560001</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2258.679821560001</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-2140.70219529</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-2105.31169529</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1961.65075514</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1748.48606713</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1428.31017116</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1664.81777116</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1574.47701657</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1254.80301657</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1453.904987930001</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-512.3966886300005</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>4099.80906181</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3335.943761810001</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>3490.56807331</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>3577.48683807</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3577.48683807</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3284.62023567</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3543.8960341</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3849.18900204</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>4055.85934087</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>4240.03724087</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>4159.89874087</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>4159.89874087</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>4390.39714087</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>4326.27914087</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>4209.73694087</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>4187.65554087</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>4198.49594087</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>4501.55574087</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>4406.63174087</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>4406.63174087</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>4406.63174087</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>4468.287640869999</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>4383.62044087</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>4285.88624087</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>4374.630640869999</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>4501.049040869999</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>4340.207640869999</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>4360.297340869998</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>4246.110340869998</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>4320.664860549999</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>4320.664860549999</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>4435.923960549999</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>4473.428460549999</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>4385.912060549998</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>4385.912060549998</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>4640.910260549998</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>4981.740960549998</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>5088.255985409998</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>5704.769885409998</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>6015.374112679998</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>5793.097711929998</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>5879.276711929998</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>5711.698311929998</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>5463.378111929997</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>5296.034711929998</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>5153.976160479998</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>5090.008860479998</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>4912.972059249998</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>4680.612759249998</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>4448.782359249998</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
